--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1008895.342151423</v>
+        <v>1016027.464040776</v>
       </c>
     </row>
     <row r="7">
@@ -656,31 +656,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>31.15099944008764</v>
+      </c>
+      <c r="G2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>143.7773912969451</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,16 +701,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -792,13 +792,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>177.3762598538794</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>123.1892483306066</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>155.7266806515576</v>
       </c>
       <c r="I5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>192.5500720523643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>182.4591849159756</v>
       </c>
       <c r="V6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>173.3980921041203</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>146.8920447697784</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>162.1947822849135</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,10 +1212,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>52.64939492479343</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>93.87620578269267</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,29 +1367,29 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>119.2110040343427</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>39.04589723677579</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1622,13 +1622,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.211010870930394</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>120.0500723064956</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,22 +1850,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>120.9273370453295</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1929,22 +1929,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>22.51811698686332</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1977,13 +1977,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="20">
@@ -2081,73 +2081,73 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>84.41978777916125</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,22 +2160,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>31.60815104066432</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>82.71243518046262</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2278,13 +2278,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>241.0142888776591</v>
@@ -2378,10 +2378,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>230.2038249569697</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2400,22 +2400,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>100.9332433248028</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>37.15414074677636</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2488,52 +2488,52 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,10 +2567,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="27">
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>67.35888363780766</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2691,13 +2691,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>183.8842973311964</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2795,70 +2795,70 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="H30" t="n">
-        <v>25.52452633447239</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3071,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,22 +3153,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>77.92691371295923</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>115.961819329749</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3269,10 +3269,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>102.3382270926889</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3308,16 +3308,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
@@ -3351,22 +3351,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.83710273534405</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>37.18582309281555</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3503,7 +3503,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3582,25 +3582,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>11.589150403241</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3630,7 +3630,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1.292370077697516</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3703,16 +3703,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>181.0201173812374</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
         <v>205.5178444382804</v>
@@ -3800,7 +3800,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>52.64939492479352</v>
       </c>
       <c r="S42" t="n">
-        <v>0.3643247550296144</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>189.1984156022267</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="C2" t="n">
-        <v>189.1984156022267</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="D2" t="n">
-        <v>189.1984156022267</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="E2" t="n">
-        <v>189.1984156022267</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="F2" t="n">
-        <v>43.96872742349432</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="G2" t="n">
-        <v>28.51141680214578</v>
+        <v>431.628992076841</v>
       </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4337,43 +4337,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T2" t="n">
-        <v>604.3859801240053</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U2" t="n">
-        <v>604.3859801240053</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V2" t="n">
-        <v>604.3859801240053</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W2" t="n">
-        <v>604.3859801240053</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="X2" t="n">
-        <v>604.3859801240053</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.792197863116</v>
+        <v>670.6884303378189</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.1299698690994</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="C3" t="n">
-        <v>166.1299698690994</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="D3" t="n">
-        <v>17.19556020784815</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="E3" t="n">
-        <v>17.19556020784815</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="F3" t="n">
-        <v>17.19556020784815</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I3" t="n">
         <v>17.19556020784815</v>
@@ -4413,19 +4413,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M3" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M3" t="n">
-        <v>366.5706756325438</v>
-      </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4440,19 +4440,19 @@
         <v>345.2979091154422</v>
       </c>
       <c r="U3" t="n">
-        <v>166.1299698690994</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V3" t="n">
-        <v>166.1299698690994</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="W3" t="n">
-        <v>166.1299698690994</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="X3" t="n">
-        <v>166.1299698690994</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="Y3" t="n">
-        <v>166.1299698690994</v>
+        <v>220.8643249431123</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="I4" t="n">
         <v>16.44142755506243</v>
@@ -4507,31 +4507,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>258.5080104335871</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C5" t="n">
-        <v>258.5080104335871</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="D5" t="n">
-        <v>258.5080104335871</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="E5" t="n">
-        <v>258.5080104335871</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="F5" t="n">
-        <v>251.5625096843836</v>
+        <v>396.792197863116</v>
       </c>
       <c r="G5" t="n">
-        <v>236.1051990630351</v>
+        <v>381.3348872417675</v>
       </c>
       <c r="H5" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
         <v>379.753706324525</v>
@@ -4589,28 +4589,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T5" t="n">
-        <v>453.0030327087026</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U5" t="n">
-        <v>453.0030327087026</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V5" t="n">
-        <v>453.0030327087026</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W5" t="n">
-        <v>453.0030327087026</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X5" t="n">
-        <v>453.0030327087026</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y5" t="n">
-        <v>258.5080104335871</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>130.5646958002688</v>
+        <v>435.5825761260537</v>
       </c>
       <c r="C6" t="n">
-        <v>130.5646958002688</v>
+        <v>435.5825761260537</v>
       </c>
       <c r="D6" t="n">
-        <v>130.5646958002688</v>
+        <v>435.5825761260537</v>
       </c>
       <c r="E6" t="n">
-        <v>130.5646958002688</v>
+        <v>276.3451211205982</v>
       </c>
       <c r="F6" t="n">
-        <v>130.5646958002688</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G6" t="n">
-        <v>130.5646958002688</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4668,28 +4668,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>435.5825761260537</v>
       </c>
       <c r="V6" t="n">
-        <v>513.308066045118</v>
+        <v>435.5825761260537</v>
       </c>
       <c r="W6" t="n">
-        <v>338.1584780611581</v>
+        <v>435.5825761260537</v>
       </c>
       <c r="X6" t="n">
-        <v>130.5646958002688</v>
+        <v>435.5825761260537</v>
       </c>
       <c r="Y6" t="n">
-        <v>130.5646958002688</v>
+        <v>435.5825761260537</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243.0506998122385</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C8" t="n">
-        <v>243.0506998122385</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D8" t="n">
-        <v>243.0506998122385</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E8" t="n">
-        <v>243.0506998122385</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F8" t="n">
-        <v>236.1051990630351</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G8" t="n">
         <v>28.51141680214578</v>
@@ -4805,13 +4805,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
         <v>583.2163723184226</v>
@@ -4829,25 +4829,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U8" t="n">
-        <v>658.2382643340171</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V8" t="n">
-        <v>450.6444820731278</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W8" t="n">
-        <v>450.6444820731278</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X8" t="n">
-        <v>243.0506998122385</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y8" t="n">
-        <v>243.0506998122385</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>244.0756638309303</v>
+        <v>255.6754663591572</v>
       </c>
       <c r="C9" t="n">
-        <v>69.62263454980328</v>
+        <v>255.6754663591572</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I9" t="n">
         <v>16.44142755506243</v>
@@ -4884,49 +4884,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T9" t="n">
-        <v>619.8847831118876</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U9" t="n">
-        <v>412.2910008509983</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V9" t="n">
-        <v>412.2910008509983</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="W9" t="n">
-        <v>412.2910008509983</v>
+        <v>423.8908033792252</v>
       </c>
       <c r="X9" t="n">
-        <v>412.2910008509983</v>
+        <v>423.8908033792252</v>
       </c>
       <c r="Y9" t="n">
-        <v>412.2910008509983</v>
+        <v>423.8908033792252</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4978,34 +4978,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="C11" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="D11" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="E11" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="F11" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="G11" t="n">
         <v>224.0352098159517</v>
       </c>
-      <c r="C11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="D11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="E11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="F11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="G11" t="n">
-        <v>16.44142755506243</v>
-      </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5048,13 +5048,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5069,19 +5069,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X11" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y11" t="n">
         <v>431.628992076841</v>
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>600.4866927157622</v>
+        <v>339.8288664974407</v>
       </c>
       <c r="C12" t="n">
-        <v>426.0336634346351</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D12" t="n">
-        <v>277.0992537733839</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>277.0992537733839</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5124,7 +5124,7 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M12" t="n">
         <v>366.5706756325438</v>
@@ -5145,25 +5145,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>600.4866927157622</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>600.4866927157622</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U12" t="n">
-        <v>600.4866927157622</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V12" t="n">
-        <v>600.4866927157622</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W12" t="n">
-        <v>600.4866927157622</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="X12" t="n">
-        <v>600.4866927157622</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="Y12" t="n">
-        <v>600.4866927157622</v>
+        <v>508.0442035175087</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5215,34 +5215,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>443.6989813239244</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C14" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D14" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5285,7 +5285,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5300,28 +5300,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>651.2927635848137</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T14" t="n">
-        <v>651.2927635848137</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U14" t="n">
-        <v>443.6989813239244</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V14" t="n">
-        <v>443.6989813239244</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W14" t="n">
-        <v>443.6989813239244</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X14" t="n">
-        <v>443.6989813239244</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y14" t="n">
-        <v>443.6989813239244</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5361,46 +5361,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>232.5025681519757</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>243.9530410142718</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F17" t="n">
-        <v>243.9530410142718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G17" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>328.0462318675013</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>181.5116738943863</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>42.7808484770018</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>42.7808484770018</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M18" t="n">
         <v>304.2053859195205</v>
@@ -5625,19 +5625,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L19" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M19" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N19" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O19" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R19" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S19" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="20">
@@ -5729,10 +5729,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
         <v>262.7299197543128</v>
@@ -5741,7 +5741,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,28 +5771,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
         <v>506.1786963984129</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>51.20856840381305</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>660.701031422288</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5832,19 +5832,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U21" t="n">
-        <v>259.0600686093459</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V21" t="n">
-        <v>259.0600686093459</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W21" t="n">
-        <v>259.0600686093459</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X21" t="n">
-        <v>51.20856840381305</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y21" t="n">
-        <v>51.20856840381305</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
         <v>19.28114311021272</v>
@@ -5926,34 +5926,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -6017,16 +6017,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>251.810259228364</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X23" t="n">
         <v>19.28114311021272</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>593.6552238493341</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C24" t="n">
-        <v>419.2021945682071</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="D24" t="n">
-        <v>317.2494235330527</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="E24" t="n">
-        <v>158.0119685275972</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>56.81057820796663</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6075,16 +6075,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6096,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>761.8705608694022</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y24" t="n">
-        <v>761.8705608694022</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>178.5185981156682</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C27" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>454.3181732824481</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>454.3181732824481</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="X27" t="n">
-        <v>454.3181732824481</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y27" t="n">
-        <v>246.5578745174942</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6494,19 +6494,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>310.5702840197694</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C30" t="n">
-        <v>136.1172547386423</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D30" t="n">
-        <v>136.1172547386423</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E30" t="n">
-        <v>136.1172547386423</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F30" t="n">
-        <v>136.1172547386423</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="G30" t="n">
-        <v>136.1172547386423</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
         <v>110.334904905842</v>
@@ -6543,49 +6543,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>621.8469951458151</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>860.4511411346975</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V30" t="n">
-        <v>761.8705608694022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W30" t="n">
-        <v>518.4217842253022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X30" t="n">
-        <v>310.5702840197694</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y30" t="n">
-        <v>310.5702840197694</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T32" t="n">
-        <v>728.6161971483371</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U32" t="n">
-        <v>728.6161971483371</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V32" t="n">
-        <v>485.167420504237</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W32" t="n">
-        <v>485.167420504237</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X32" t="n">
-        <v>241.7186438601369</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.7186438601369</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6753,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>178.5185981156682</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C33" t="n">
-        <v>178.5185981156682</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D33" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>885.3431012551218</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>885.3431012551218</v>
+        <v>572.3371306760605</v>
       </c>
       <c r="U33" t="n">
-        <v>657.1194829915109</v>
+        <v>572.3371306760605</v>
       </c>
       <c r="V33" t="n">
-        <v>421.9673747597683</v>
+        <v>337.1850224443177</v>
       </c>
       <c r="W33" t="n">
-        <v>178.5185981156682</v>
+        <v>337.1850224443177</v>
       </c>
       <c r="X33" t="n">
-        <v>178.5185981156682</v>
+        <v>337.1850224443177</v>
       </c>
       <c r="Y33" t="n">
-        <v>178.5185981156682</v>
+        <v>337.1850224443177</v>
       </c>
     </row>
     <row r="34">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>795.8418184905681</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C36" t="n">
-        <v>621.3887892094411</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D36" t="n">
-        <v>472.4543795481899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>313.2169245427344</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>166.6823665696193</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>27.95154115223485</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>27.95154115223485</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7026,13 +7026,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="37">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
         <v>19.28114311021272</v>
@@ -7208,16 +7208,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>627.7355178317791</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="C39" t="n">
-        <v>453.2824885506521</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="D39" t="n">
-        <v>304.3480788894009</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="E39" t="n">
-        <v>145.1106238839454</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F39" t="n">
-        <v>145.1106238839454</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G39" t="n">
-        <v>145.1106238839454</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H39" t="n">
-        <v>31.7414882915247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7254,22 +7254,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>861.5822017426153</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>861.5822017426153</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>861.5822017426153</v>
       </c>
       <c r="V39" t="n">
-        <v>627.7355178317791</v>
+        <v>626.4300935108727</v>
       </c>
       <c r="W39" t="n">
-        <v>627.7355178317791</v>
+        <v>626.4300935108727</v>
       </c>
       <c r="X39" t="n">
-        <v>627.7355178317791</v>
+        <v>626.4300935108727</v>
       </c>
       <c r="Y39" t="n">
-        <v>627.7355178317791</v>
+        <v>418.6697947459187</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7412,19 +7412,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>85.87524403801982</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>265.9510956226784</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7439,13 +7439,13 @@
         <v>639.2227743377304</v>
       </c>
       <c r="T41" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W41" t="n">
         <v>16.44142755506243</v>
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>350.131911841645</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C42" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
         <v>16.44142755506243</v>
@@ -7491,19 +7491,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7512,28 +7512,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>720.9018483060073</v>
+        <v>768.8901707583807</v>
       </c>
       <c r="S42" t="n">
-        <v>720.5338435029471</v>
+        <v>768.8901707583807</v>
       </c>
       <c r="T42" t="n">
-        <v>518.3472488617131</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="U42" t="n">
-        <v>518.3472488617131</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="V42" t="n">
-        <v>518.3472488617131</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="W42" t="n">
-        <v>518.3472488617131</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="X42" t="n">
-        <v>518.3472488617131</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="Y42" t="n">
-        <v>518.3472488617131</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="43">
@@ -7649,19 +7649,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7734,10 +7734,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N45" t="n">
-        <v>639.4279001397708</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
         <v>639.4279001397708</v>
@@ -7985,16 +7985,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8061,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,13 +8216,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8453,16 +8453,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>269.7148239424616</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,16 +8696,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,10 +8772,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -8933,10 +8933,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9009,22 +9009,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>230.174158102173</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>382.1386950879875</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9495,7 +9495,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9723,19 +9723,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,19 +9954,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M27" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -10206,10 +10206,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,22 +10428,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10674,16 +10674,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>186.8580120236956</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,10 +11060,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>290.2250192095839</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>339.3481270698632</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
@@ -11154,7 +11154,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11382,13 +11382,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>222.9614904056321</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23270,13 +23270,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23309,10 +23309,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23346,19 +23346,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,7 +23385,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>52.47216706949513</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>166.6367985405286</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23495,10 +23495,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23510,13 +23510,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>199.809058715315</v>
+        <v>37.99065141955279</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23558,7 +23558,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,19 +23619,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>105.8913097744792</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23738,22 +23738,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,19 +23774,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>130.418315862507</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23817,22 +23817,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>66.87851586455176</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23865,13 +23865,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23929,7 +23929,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
@@ -23941,7 +23941,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="20">
@@ -23969,22 +23969,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,16 +24011,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>138.6760617849701</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,22 +24048,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>141.1003479476514</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>64.73263038417613</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24096,13 +24096,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,7 +24111,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24166,13 +24166,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24257,7 +24257,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>10.33136403017744</v>
@@ -24266,10 +24266,10 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>119.0371437604433</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24288,22 +24288,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>46.51182223983591</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>52.24249210463871</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24336,7 +24336,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24345,13 +24345,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24421,7 +24421,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24443,7 +24443,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,10 +24455,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>213.0080510862378</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24509,7 +24509,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="27">
@@ -24519,16 +24519,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>99.17430001205967</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24579,13 +24579,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>67.81068582972321</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24652,7 +24652,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24683,16 +24683,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24734,19 +24734,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,10 +24771,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>102.3410493332382</v>
       </c>
       <c r="H30" t="n">
-        <v>86.71091790202408</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24804,25 +24804,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24856,7 +24856,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J31" t="n">
         <v>93.35918011667277</v>
@@ -24892,7 +24892,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>302.3991346476606</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,7 +24926,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>186.6629199992865</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24959,10 +24959,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24980,7 +24980,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,16 +24993,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,22 +25041,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>93.75625739087859</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>84.20290936507263</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25157,10 +25157,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>279.5921429795728</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25196,16 +25196,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
@@ -25239,22 +25239,22 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>81.55953011607103</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,7 +25281,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>134.4973480110223</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25296,10 +25296,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25391,7 +25391,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25448,7 +25448,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25470,25 +25470,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>77.80748244817407</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,7 +25518,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>170.3908010261403</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25591,16 +25591,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25679,7 +25679,7 @@
         <v>27.99995220500799</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
         <v>45.82780846955609</v>
@@ -25688,7 +25688,7 @@
         <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25713,7 +25713,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25752,10 +25752,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>47.50843922784961</v>
       </c>
       <c r="S42" t="n">
-        <v>171.3188463488082</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>402537.0575143068</v>
+        <v>402537.0575143069</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>424007.4396802568</v>
+        <v>424007.439680257</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>424007.439680257</v>
+        <v>424007.4396802569</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>424007.439680257</v>
+        <v>424007.4396802569</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>424007.4396802569</v>
+        <v>424007.439680257</v>
       </c>
     </row>
     <row r="15">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185702</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
+        <v>492625.0619185701</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.06191857</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
         <v>189309.170201918</v>
@@ -26326,7 +26326,7 @@
         <v>189309.1702019179</v>
       </c>
       <c r="G2" t="n">
-        <v>199392.8070375988</v>
+        <v>199392.8070375989</v>
       </c>
       <c r="H2" t="n">
         <v>199392.8070375988</v>
@@ -26335,13 +26335,13 @@
         <v>199392.8070375987</v>
       </c>
       <c r="J2" t="n">
+        <v>199392.8070375987</v>
+      </c>
+      <c r="K2" t="n">
+        <v>199392.8070375987</v>
+      </c>
+      <c r="L2" t="n">
         <v>199392.8070375988</v>
-      </c>
-      <c r="K2" t="n">
-        <v>199392.8070375988</v>
-      </c>
-      <c r="L2" t="n">
-        <v>199392.8070375987</v>
       </c>
       <c r="M2" t="n">
         <v>199392.8070375987</v>
@@ -26353,7 +26353,7 @@
         <v>189309.1702019179</v>
       </c>
       <c r="P2" t="n">
-        <v>189309.1702019179</v>
+        <v>189309.170201918</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329219.0235480686</v>
+        <v>328386.1670003451</v>
       </c>
       <c r="C4" t="n">
-        <v>329219.0235480686</v>
+        <v>328386.1670003452</v>
       </c>
       <c r="D4" t="n">
-        <v>329219.0235480686</v>
+        <v>328386.1670003452</v>
       </c>
       <c r="E4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="F4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="G4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="H4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="I4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="K4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="L4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="M4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="N4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="O4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="P4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48409.19684696434</v>
+        <v>49242.05339468759</v>
       </c>
       <c r="C6" t="n">
-        <v>117282.953428654</v>
+        <v>118115.8099763775</v>
       </c>
       <c r="D6" t="n">
-        <v>117282.9534286541</v>
+        <v>118115.8099763774</v>
       </c>
       <c r="E6" t="n">
-        <v>136132.53585945</v>
+        <v>136965.3924071735</v>
       </c>
       <c r="F6" t="n">
-        <v>136132.53585945</v>
+        <v>136965.3924071733</v>
       </c>
       <c r="G6" t="n">
-        <v>132114.8410397546</v>
+        <v>132992.669943774</v>
       </c>
       <c r="H6" t="n">
-        <v>141843.8840139216</v>
+        <v>142721.712917941</v>
       </c>
       <c r="I6" t="n">
-        <v>141843.8840139216</v>
+        <v>142721.7129179409</v>
       </c>
       <c r="J6" t="n">
-        <v>88071.37312371217</v>
+        <v>88949.2020277315</v>
       </c>
       <c r="K6" t="n">
-        <v>141843.8840139217</v>
+        <v>142721.7129179409</v>
       </c>
       <c r="L6" t="n">
-        <v>141843.8840139216</v>
+        <v>142721.712917941</v>
       </c>
       <c r="M6" t="n">
-        <v>141843.8840139215</v>
+        <v>142721.7129179408</v>
       </c>
       <c r="N6" t="n">
-        <v>141843.8840139216</v>
+        <v>142721.7129179409</v>
       </c>
       <c r="O6" t="n">
-        <v>136132.53585945</v>
+        <v>136965.3924071734</v>
       </c>
       <c r="P6" t="n">
-        <v>136132.53585945</v>
+        <v>136965.3924071734</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,19 +27388,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>263.0986544447663</v>
+        <v>375.7250463016238</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,16 +27421,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27461,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27473,10 +27473,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,13 +27512,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>48.56512222709543</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>128.505734830313</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27555,7 +27555,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>111.1469913286912</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27625,19 +27625,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>183.7481214642096</v>
       </c>
       <c r="I5" t="n">
         <v>4.958045132125505</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>193.6878666036893</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27701,10 +27701,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27716,7 +27716,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>43.48219716499923</v>
       </c>
       <c r="V6" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>78.2968910567993</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27789,7 +27789,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>51.30969674795442</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>156.0574714863295</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,16 +27856,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>235.0383253024833</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27901,25 +27901,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>89.15087062292304</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -27932,10 +27932,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>94.79567063984533</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27950,7 +27950,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27986,13 +27986,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>157.8187773782269</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,13 +28050,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>175.6055225771058</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34705,16 +34705,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N2" t="n">
-        <v>171.5974510766996</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M3" t="n">
-        <v>21.52426467247106</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,13 +34936,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -35173,16 +35173,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,16 +35416,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="M12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M12" t="n">
-        <v>21.52426467247106</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35653,10 +35653,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N14" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35729,22 +35729,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>240.0046611659691</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36215,7 +36215,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M27" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,10 +36926,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37394,16 +37394,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>55.51629994036225</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,10 +37780,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>70.13516816460341</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37795,7 +37795,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>197.2140931478448</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
@@ -37874,7 +37874,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38032,7 +38032,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>91.61977832229879</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1016027.464040776</v>
+        <v>1016811.609978805</v>
       </c>
     </row>
     <row r="7">
@@ -668,52 +670,52 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>31.15099944008764</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="G2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I2" t="n">
+      <c r="U2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -756,10 +758,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>45.77396097393427</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -798,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>123.1892483306066</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>37.10634673358873</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -905,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>155.7266806515576</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,19 +943,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>182.4591849159756</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>40.67515908177274</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E8" t="n">
-        <v>146.8920447697784</v>
-      </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>153.7680905114898</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,25 +1262,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>114.6969565630368</v>
       </c>
       <c r="W9" t="n">
-        <v>93.87620578269267</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="10">
@@ -1348,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="W10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1382,61 +1384,61 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>21.16030022554286</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="U11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1455,7 +1457,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1500,7 +1502,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>47.93400043124215</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>39.04589723677579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>205.5178444382804</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
         <v>171.0294181666926</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1701,10 +1703,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>36.6156848048708</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,58 +1852,58 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1938,10 +1940,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>22.51811698686332</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,22 +2165,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>82.71243518046262</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>115.2257300035334</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2248,46 +2250,46 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2318,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2372,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>212.2853856434421</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2412,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>37.15414074677636</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2463,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>123.9809112256319</v>
       </c>
     </row>
     <row r="25">
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2564,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,10 +2639,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2694,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>183.8842973311964</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>85.31372784089217</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2722,52 +2724,52 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2846,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,31 +2870,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>35.00246782997241</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,16 +2921,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>203.4144575275703</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2968,49 +2970,49 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3074,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3105,31 +3107,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>122.166496523012</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>115.961819329749</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
@@ -3342,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3393,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>37.18582309281555</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3463,13 +3465,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3500,73 +3502,73 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>241.0142888776591</v>
@@ -3588,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3597,10 +3599,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3630,7 +3632,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>1.292370077697516</v>
+        <v>72.16879678468243</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3740,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3749,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="T41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="U41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
         <v>52.64939492479352</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -3977,7 +3979,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4037,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>670.6884303378189</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C2" t="n">
-        <v>670.6884303378189</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D2" t="n">
-        <v>670.6884303378189</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E2" t="n">
-        <v>670.6884303378189</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F2" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G2" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4334,7 +4336,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M2" t="n">
         <v>379.753706324525</v>
@@ -4352,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>670.6884303378189</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U2" t="n">
-        <v>670.6884303378189</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V2" t="n">
-        <v>670.6884303378189</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W2" t="n">
-        <v>670.6884303378189</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X2" t="n">
-        <v>670.6884303378189</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y2" t="n">
-        <v>670.6884303378189</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>220.8643249431123</v>
+        <v>304.2635924286101</v>
       </c>
       <c r="C3" t="n">
-        <v>220.8643249431123</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="D3" t="n">
-        <v>220.8643249431123</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="E3" t="n">
-        <v>220.8643249431123</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="F3" t="n">
-        <v>220.8643249431123</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8643249431123</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H3" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4434,25 +4436,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>674.6655240899121</v>
       </c>
       <c r="T3" t="n">
-        <v>345.2979091154422</v>
+        <v>472.4789294486781</v>
       </c>
       <c r="U3" t="n">
-        <v>345.2979091154422</v>
+        <v>472.4789294486781</v>
       </c>
       <c r="V3" t="n">
-        <v>345.2979091154422</v>
+        <v>472.4789294486781</v>
       </c>
       <c r="W3" t="n">
-        <v>220.8643249431123</v>
+        <v>472.4789294486781</v>
       </c>
       <c r="X3" t="n">
-        <v>220.8643249431123</v>
+        <v>472.4789294486781</v>
       </c>
       <c r="Y3" t="n">
-        <v>220.8643249431123</v>
+        <v>472.4789294486781</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.19242108896862</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="C4" t="n">
-        <v>61.19242108896862</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="D4" t="n">
-        <v>61.19242108896862</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="E4" t="n">
-        <v>61.19242108896862</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="F4" t="n">
-        <v>61.19242108896862</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="G4" t="n">
-        <v>61.19242108896862</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="H4" t="n">
-        <v>61.19242108896862</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="J4" t="n">
         <v>16.44142755506243</v>
@@ -4507,31 +4509,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R4" t="n">
-        <v>61.19242108896862</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="S4" t="n">
-        <v>61.19242108896862</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="T4" t="n">
-        <v>61.19242108896862</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="U4" t="n">
-        <v>61.19242108896862</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="V4" t="n">
-        <v>61.19242108896862</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="W4" t="n">
-        <v>61.19242108896862</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="X4" t="n">
-        <v>61.19242108896862</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="Y4" t="n">
-        <v>61.19242108896862</v>
+        <v>110.7436296931158</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>604.3859801240053</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="C5" t="n">
-        <v>604.3859801240053</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="D5" t="n">
-        <v>604.3859801240053</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="E5" t="n">
-        <v>604.3859801240053</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="F5" t="n">
-        <v>396.792197863116</v>
+        <v>251.5625096843836</v>
       </c>
       <c r="G5" t="n">
-        <v>381.3348872417675</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H5" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
@@ -4574,13 +4576,13 @@
         <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4589,28 +4591,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T5" t="n">
-        <v>604.3859801240053</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U5" t="n">
-        <v>604.3859801240053</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V5" t="n">
-        <v>604.3859801240053</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="W5" t="n">
-        <v>604.3859801240053</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="X5" t="n">
-        <v>604.3859801240053</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="Y5" t="n">
-        <v>604.3859801240053</v>
+        <v>258.5080104335871</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>435.5825761260537</v>
+        <v>338.1831474620902</v>
       </c>
       <c r="C6" t="n">
-        <v>435.5825761260537</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="D6" t="n">
-        <v>435.5825761260537</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="E6" t="n">
-        <v>276.3451211205982</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="F6" t="n">
-        <v>129.8105631474831</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G6" t="n">
-        <v>129.8105631474831</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>619.8847831118876</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U6" t="n">
-        <v>435.5825761260537</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V6" t="n">
-        <v>435.5825761260537</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W6" t="n">
-        <v>435.5825761260537</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="X6" t="n">
-        <v>435.5825761260537</v>
+        <v>506.3984844821583</v>
       </c>
       <c r="Y6" t="n">
-        <v>435.5825761260537</v>
+        <v>506.3984844821583</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L7" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M7" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N7" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O7" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>819.3224477176605</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>819.3224477176605</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R7" t="n">
-        <v>819.3224477176605</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S7" t="n">
-        <v>819.3224477176605</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>819.3224477176605</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>819.3224477176605</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>819.3224477176605</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4784,10 +4786,10 @@
         <v>406.8838132313431</v>
       </c>
       <c r="D8" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="E8" t="n">
         <v>199.2900309704538</v>
-      </c>
-      <c r="E8" t="n">
-        <v>50.91422817269779</v>
       </c>
       <c r="F8" t="n">
         <v>43.96872742349432</v>
@@ -4805,19 +4807,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4829,16 +4831,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
         <v>614.4775954922324</v>
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>255.6754663591572</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>255.6754663591572</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
         <v>16.44142755506243</v>
@@ -4884,22 +4886,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N9" t="n">
-        <v>626.8294255367553</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4908,25 +4910,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T9" t="n">
-        <v>518.7152536647734</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U9" t="n">
-        <v>518.7152536647734</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="V9" t="n">
-        <v>518.7152536647734</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W9" t="n">
-        <v>423.8908033792252</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X9" t="n">
-        <v>423.8908033792252</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y9" t="n">
-        <v>423.8908033792252</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4996,7 +4998,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W10" t="n">
         <v>38.93586374282289</v>
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5048,43 +5050,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T11" t="n">
         <v>639.2227743377304</v>
       </c>
       <c r="U11" t="n">
-        <v>431.628992076841</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
-        <v>431.628992076841</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W11" t="n">
-        <v>431.628992076841</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X11" t="n">
         <v>431.628992076841</v>
       </c>
       <c r="Y11" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>339.8288664974407</v>
+        <v>499.0663215028962</v>
       </c>
       <c r="C12" t="n">
-        <v>165.3758372163137</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E12" t="n">
         <v>16.44142755506243</v>
@@ -5124,7 +5126,7 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
         <v>366.5706756325438</v>
@@ -5148,22 +5150,22 @@
         <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>547.4845037566762</v>
+        <v>499.0663215028962</v>
       </c>
       <c r="U12" t="n">
-        <v>547.4845037566762</v>
+        <v>499.0663215028962</v>
       </c>
       <c r="V12" t="n">
-        <v>547.4845037566762</v>
+        <v>499.0663215028962</v>
       </c>
       <c r="W12" t="n">
-        <v>547.4845037566762</v>
+        <v>499.0663215028962</v>
       </c>
       <c r="X12" t="n">
-        <v>547.4845037566762</v>
+        <v>499.0663215028962</v>
       </c>
       <c r="Y12" t="n">
-        <v>508.0442035175087</v>
+        <v>499.0663215028962</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C14" t="n">
         <v>224.0352098159517</v>
@@ -5279,10 +5281,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M14" t="n">
         <v>379.753706324525</v>
@@ -5303,7 +5305,7 @@
         <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T14" t="n">
         <v>639.2227743377304</v>
@@ -5321,7 +5323,7 @@
         <v>431.628992076841</v>
       </c>
       <c r="Y14" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="15">
@@ -5334,22 +5336,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>647.6183484719946</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>498.6839388107434</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>339.4464838052879</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>192.9119258321728</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>54.18110041478835</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I15" t="n">
         <v>17.19556020784815</v>
@@ -5364,10 +5366,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
-        <v>570.0333416264414</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>487.2836868729568</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>487.2836868729568</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>328.0462318675013</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>181.5116738943863</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>42.7808484770018</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>42.7808484770018</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5595,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>660.701031422288</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="C21" t="n">
-        <v>660.701031422288</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="D21" t="n">
-        <v>577.1531170985884</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="E21" t="n">
-        <v>417.9156620931329</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,13 +5834,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W21" t="n">
-        <v>660.701031422288</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X21" t="n">
-        <v>660.701031422288</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y21" t="n">
-        <v>660.701031422288</v>
+        <v>339.3395341116723</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
         <v>19.28114311021272</v>
@@ -5935,25 +5937,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D23" t="n">
         <v>19.28114311021272</v>
@@ -6020,19 +6022,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V23" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="X23" t="n">
         <v>477.1596022224361</v>
       </c>
-      <c r="W23" t="n">
-        <v>233.7108255783361</v>
-      </c>
-      <c r="X23" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>344.6327430815143</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>56.81057820796663</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6075,16 +6077,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X24" t="n">
-        <v>720.6083788665362</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="Y24" t="n">
-        <v>512.8480801015824</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="25">
@@ -6169,16 +6171,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6260,16 +6262,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
         <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.4883050441255</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,13 +6311,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>304.2053859195205</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
+        <v>383.2428491569326</v>
+      </c>
+      <c r="N27" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N27" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6342,13 +6344,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>778.3154410346802</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X27" t="n">
-        <v>570.4639408291474</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="Y27" t="n">
-        <v>362.7036420641935</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6494,19 +6496,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>259.0600686093459</v>
+        <v>489.203140025706</v>
       </c>
       <c r="C30" t="n">
-        <v>259.0600686093459</v>
+        <v>314.750110744579</v>
       </c>
       <c r="D30" t="n">
-        <v>259.0600686093459</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E30" t="n">
-        <v>259.0600686093459</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>259.0600686093459</v>
+        <v>657.4184770457741</v>
       </c>
       <c r="W30" t="n">
-        <v>259.0600686093459</v>
+        <v>657.4184770457741</v>
       </c>
       <c r="X30" t="n">
-        <v>259.0600686093459</v>
+        <v>657.4184770457741</v>
       </c>
       <c r="Y30" t="n">
-        <v>259.0600686093459</v>
+        <v>657.4184770457741</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
         <v>829.5248650203655</v>
@@ -6658,13 +6660,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C32" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D32" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="E32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>343.8760884571613</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W32" t="n">
-        <v>343.8760884571613</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>343.8760884571613</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>343.8760884571613</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>168.9696854242497</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="C33" t="n">
-        <v>168.9696854242497</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>394.7816056584139</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>572.3371306760605</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>572.3371306760605</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V33" t="n">
-        <v>337.1850224443177</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W33" t="n">
-        <v>337.1850224443177</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X33" t="n">
-        <v>337.1850224443177</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y33" t="n">
-        <v>337.1850224443177</v>
+        <v>554.0190606638694</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6965,22 +6967,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>342.668582052591</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
         <v>19.28114311021272</v>
@@ -7020,16 +7022,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>926.4957180431458</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>926.4957180431458</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>926.4957180431458</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="V36" t="n">
-        <v>926.4957180431458</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="W36" t="n">
-        <v>926.4957180431458</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X36" t="n">
-        <v>718.6442178376129</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y36" t="n">
-        <v>510.883919072659</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="37">
@@ -7111,10 +7113,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R37" t="n">
         <v>19.28114311021272</v>
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
         <v>19.28114311021272</v>
@@ -7208,16 +7210,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>418.6697947459187</v>
+        <v>554.837743301797</v>
       </c>
       <c r="C39" t="n">
-        <v>418.6697947459187</v>
+        <v>554.837743301797</v>
       </c>
       <c r="D39" t="n">
-        <v>418.6697947459187</v>
+        <v>554.837743301797</v>
       </c>
       <c r="E39" t="n">
-        <v>418.6697947459187</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F39" t="n">
-        <v>272.1352367728036</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G39" t="n">
-        <v>133.4044113554191</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7254,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>861.5822017426153</v>
+        <v>789.9898515335396</v>
       </c>
       <c r="T39" t="n">
-        <v>861.5822017426153</v>
+        <v>789.9898515335396</v>
       </c>
       <c r="U39" t="n">
-        <v>861.5822017426153</v>
+        <v>789.9898515335396</v>
       </c>
       <c r="V39" t="n">
-        <v>626.4300935108727</v>
+        <v>554.837743301797</v>
       </c>
       <c r="W39" t="n">
-        <v>626.4300935108727</v>
+        <v>554.837743301797</v>
       </c>
       <c r="X39" t="n">
-        <v>626.4300935108727</v>
+        <v>554.837743301797</v>
       </c>
       <c r="Y39" t="n">
-        <v>418.6697947459187</v>
+        <v>554.837743301797</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7436,25 +7438,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="T41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="U41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y41" t="n">
         <v>639.2227743377304</v>
-      </c>
-      <c r="T41" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="U41" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="V41" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="W41" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="X41" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7491,13 +7493,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>232.5025681519757</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
         <v>435.9652341458732</v>
@@ -7512,7 +7514,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>768.8901707583807</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
         <v>768.8901707583807</v>
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7649,19 +7651,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
-        <v>603.4426111275161</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>752.6375612701642</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7673,25 +7675,25 @@
         <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W44" t="n">
-        <v>431.628992076841</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X44" t="n">
-        <v>431.628992076841</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7730,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M45" t="n">
-        <v>345.2616536067974</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7982,10 +7984,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M2" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8070,13 +8072,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>234.2160227667432</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,7 +8224,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8231,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>286.7024424905649</v>
       </c>
       <c r="M6" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8462,13 +8464,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>269.7148239424616</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,16 +8698,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,10 +8774,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -8927,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -9012,13 +9014,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>152.8659767558044</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9723,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2485028631349</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,16 +9959,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,19 +10670,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10826,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>301.368163919873</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>265.6729592778915</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>187.8597693607025</v>
       </c>
       <c r="T11" t="n">
-        <v>42.075732182894</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23343,7 +23345,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23388,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>152.2307282635795</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23403,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>166.6367985405286</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23495,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>149.1651971824026</v>
@@ -23543,10 +23545,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>37.99065141955279</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>52.06643139743881</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23561,7 +23563,7 @@
         <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23574,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23589,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>75.61975943162567</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23738,16 +23740,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,10 +23813,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23826,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>66.87851586455176</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23953,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>354.079835614828</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23984,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,31 +24013,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24051,22 +24053,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>64.73263038417613</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>22.11778715967723</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24108,10 +24110,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24136,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24175,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24206,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24260,16 +24262,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>157.4457150350269</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24300,10 +24302,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>52.24249210463871</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24333,13 +24335,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24351,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>81.7017845516725</v>
       </c>
     </row>
     <row r="25">
@@ -24409,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24421,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24452,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24500,16 +24502,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24525,10 +24527,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24582,10 +24584,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>67.81068582972321</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>120.4592573625853</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24734,7 +24736,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24746,7 +24748,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,31 +24758,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>102.3410493332382</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,16 +24809,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>29.38612962185499</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24856,7 +24858,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
         <v>93.35918011667277</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>302.3991346476606</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24962,13 +24964,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24993,31 +24995,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>22.90271587037186</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>84.20290936507263</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>135.0690668140378</v>
       </c>
       <c r="D35" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25205,7 +25207,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
@@ -25230,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25281,19 +25283,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>134.4973480110223</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>115.7915986513122</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25351,13 +25353,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25448,13 +25450,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>145.2236497783945</v>
@@ -25476,7 +25478,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25485,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>170.3908010261403</v>
+        <v>99.51437431915539</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25594,13 +25596,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25628,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25637,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25676,16 +25678,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="42">
@@ -25752,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>47.50843922784961</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>119.0337761790443</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>168.4453839490745</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25913,7 +25915,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>37.99065141955279</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25925,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>424007.439680257</v>
+        <v>424007.4396802569</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>424007.4396802569</v>
+        <v>424007.439680257</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>424007.4396802569</v>
+        <v>424007.439680257</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>424007.439680257</v>
+        <v>424007.4396802569</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>424007.439680257</v>
+        <v>424007.4396802569</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>402537.0575143068</v>
+        <v>402537.0575143069</v>
       </c>
     </row>
     <row r="16">
@@ -26314,10 +26316,10 @@
         <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
+        <v>492625.06191857</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.0619185701</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
         <v>189309.170201918</v>
@@ -26326,25 +26328,25 @@
         <v>189309.1702019179</v>
       </c>
       <c r="G2" t="n">
-        <v>199392.8070375989</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="H2" t="n">
-        <v>199392.8070375988</v>
+        <v>199392.8070375987</v>
       </c>
       <c r="I2" t="n">
         <v>199392.8070375987</v>
       </c>
       <c r="J2" t="n">
+        <v>199392.8070375988</v>
+      </c>
+      <c r="K2" t="n">
+        <v>199392.8070375988</v>
+      </c>
+      <c r="L2" t="n">
         <v>199392.8070375987</v>
       </c>
-      <c r="K2" t="n">
-        <v>199392.8070375987</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>199392.8070375988</v>
-      </c>
-      <c r="M2" t="n">
-        <v>199392.8070375987</v>
       </c>
       <c r="N2" t="n">
         <v>199392.8070375987</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>328386.1670003452</v>
+      </c>
+      <c r="C4" t="n">
         <v>328386.1670003451</v>
-      </c>
-      <c r="C4" t="n">
-        <v>328386.1670003452</v>
       </c>
       <c r="D4" t="n">
         <v>328386.1670003452</v>
@@ -26439,7 +26441,7 @@
         <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="K4" t="n">
         <v>42017.42535589615</v>
@@ -26448,7 +26450,7 @@
         <v>42017.42535589615</v>
       </c>
       <c r="M4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="N4" t="n">
         <v>42017.42535589615</v>
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49242.05339468759</v>
+        <v>49242.05339468751</v>
       </c>
       <c r="C6" t="n">
+        <v>118115.8099763774</v>
+      </c>
+      <c r="D6" t="n">
         <v>118115.8099763775</v>
-      </c>
-      <c r="D6" t="n">
-        <v>118115.8099763774</v>
       </c>
       <c r="E6" t="n">
         <v>136965.3924071735</v>
       </c>
       <c r="F6" t="n">
-        <v>136965.3924071733</v>
+        <v>136965.3924071734</v>
       </c>
       <c r="G6" t="n">
-        <v>132992.669943774</v>
+        <v>132992.6699437739</v>
       </c>
       <c r="H6" t="n">
-        <v>142721.712917941</v>
+        <v>142721.7129179409</v>
       </c>
       <c r="I6" t="n">
         <v>142721.7129179409</v>
       </c>
       <c r="J6" t="n">
-        <v>88949.2020277315</v>
+        <v>88949.20202773155</v>
       </c>
       <c r="K6" t="n">
+        <v>142721.712917941</v>
+      </c>
+      <c r="L6" t="n">
         <v>142721.7129179409</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>142721.712917941</v>
-      </c>
-      <c r="M6" t="n">
-        <v>142721.7129179408</v>
       </c>
       <c r="N6" t="n">
         <v>142721.7129179409</v>
@@ -26561,7 +26563,7 @@
         <v>136965.3924071734</v>
       </c>
       <c r="P6" t="n">
-        <v>136965.3924071734</v>
+        <v>136965.3924071735</v>
       </c>
     </row>
   </sheetData>
@@ -27388,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>375.7250463016238</v>
+        <v>225.855928360474</v>
       </c>
       <c r="G2" t="n">
         <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -27424,16 +27426,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27455,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27476,10 +27478,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>125.9092101299036</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27518,7 +27520,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>128.505734830313</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27555,10 +27557,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>111.1469913286912</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>140.1870446435807</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27625,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>183.7481214642096</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>4.958045132125505</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>135.2021864177706</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27692,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,13 +27712,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>43.48219716499923</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>165.0978261217047</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27819,7 +27821,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690797</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27834,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,13 +27858,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>235.0383253024833</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>253.1079552302216</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,7 +27903,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27913,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27950,7 +27952,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27980,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>118.1036305863884</v>
       </c>
       <c r="W9" t="n">
-        <v>157.8187773782269</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -28068,10 +28070,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>141.2201675643428</v>
       </c>
       <c r="W10" t="n">
-        <v>175.6055225771058</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34702,10 +34704,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,13 +34792,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>91.61977832229879</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -34951,7 +34953,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="M6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M6" t="n">
-        <v>91.61977832229879</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
@@ -35182,13 +35184,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N9" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O9" t="n">
-        <v>127.1185794980172</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,16 +35418,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,10 +35494,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="M12" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="M12" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35732,13 +35734,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>21.52426467247106</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35890,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36443,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37552,7 +37554,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -38017,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38032,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>70.1351681646035</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>127.1185794980173</v>
+      </c>
+      <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
       <c r="N45" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1016811.609978805</v>
+        <v>947568.6917828462</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797656</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6455998.2569061</v>
+        <v>6513595.499733505</v>
       </c>
     </row>
     <row r="11">
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>181.0201173812374</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
-        <v>205.5178444382804</v>
+        <v>25.19384698280639</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
-        <v>45.77396097393427</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R4" t="n">
-        <v>37.10634673358873</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>220.8837963815379</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>205.5178444382804</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>192.5500720523643</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1028,19 +1028,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>63.9260459295682</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>40.67515908177274</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>153.7680905114898</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>220.8837963815378</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>114.6969565630368</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>234.0026678009497</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>21.16030022554286</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>70.34400780127524</v>
       </c>
     </row>
     <row r="12">
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>47.93400043124215</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="15">
@@ -1688,22 +1688,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>36.6156848048708</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>65.15833666651379</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1806,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1982,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>11.19305615617957</v>
-      </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2168,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>110.1113226016109</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>115.2257300035334</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2456,16 +2456,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>123.9809112256319</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>84.0572199420196</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>85.31372784089217</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>241.0142888776591</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,19 +2873,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>203.4144575275703</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>56.89625335807542</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E32" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3110,22 +3110,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>31.60815104066432</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>122.166496523012</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3189,67 +3189,67 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,23 +3268,23 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>89.98138655216532</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>110.1497834296626</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3465,13 +3465,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3547,28 +3547,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>241.0142888776591</v>
@@ -3590,22 +3590,22 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>24.74894597221386</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>72.16879678468243</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>16.62553367015321</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>52.64939492479352</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3918,37 +3918,37 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4021,19 +4021,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>80.86228322859426</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>191.264473050588</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.8838132313431</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="C2" t="n">
-        <v>406.8838132313431</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="D2" t="n">
-        <v>406.8838132313431</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="E2" t="n">
-        <v>406.8838132313431</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="F2" t="n">
-        <v>224.0352098159517</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>614.4775954922324</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="U2" t="n">
-        <v>406.8838132313431</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="V2" t="n">
-        <v>406.8838132313431</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="W2" t="n">
-        <v>406.8838132313431</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="X2" t="n">
-        <v>406.8838132313431</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="Y2" t="n">
-        <v>406.8838132313431</v>
+        <v>95.85238145955221</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>304.2635924286101</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="C3" t="n">
-        <v>129.8105631474831</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="D3" t="n">
-        <v>129.8105631474831</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="E3" t="n">
-        <v>129.8105631474831</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="F3" t="n">
-        <v>129.8105631474831</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="G3" t="n">
-        <v>129.8105631474831</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
-        <v>423.3667595428576</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>674.6655240899121</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>472.4789294486781</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>472.4789294486781</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>472.4789294486781</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>472.4789294486781</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
-        <v>472.4789294486781</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>472.4789294486781</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="R4" t="n">
-        <v>110.7436296931158</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="S4" t="n">
-        <v>110.7436296931158</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="T4" t="n">
-        <v>110.7436296931158</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="U4" t="n">
-        <v>110.7436296931158</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="V4" t="n">
-        <v>110.7436296931158</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="W4" t="n">
-        <v>110.7436296931158</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="X4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>258.5080104335871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C5" t="n">
-        <v>258.5080104335871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D5" t="n">
-        <v>258.5080104335871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E5" t="n">
-        <v>258.5080104335871</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F5" t="n">
-        <v>251.5625096843836</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G5" t="n">
-        <v>236.1051990630351</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>236.1051990630351</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>399.9799451336186</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>603.4426111275161</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>752.6375612701642</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>660.5968149695918</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>660.5968149695918</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>660.5968149695918</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>453.0030327087026</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>258.5080104335871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>258.5080104335871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>258.5080104335871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>258.5080104335871</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>338.1831474620902</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C6" t="n">
-        <v>163.7301181809632</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>163.7301181809632</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>163.7301181809632</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>163.1080096386462</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>547.4845037566762</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>547.4845037566762</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>547.4845037566762</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="W6" t="n">
-        <v>547.4845037566762</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="X6" t="n">
-        <v>506.3984844821583</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y6" t="n">
-        <v>506.3984844821583</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.224788009872</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.8838132313431</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>406.8838132313431</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D8" t="n">
-        <v>406.8838132313431</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E8" t="n">
-        <v>199.2900309704538</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F8" t="n">
-        <v>43.96872742349432</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G8" t="n">
-        <v>28.51141680214578</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>399.9799451336186</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>603.4426111275161</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>752.6375612701642</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>406.8838132313431</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>435.9652341458732</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>547.4845037566762</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>339.8907214957869</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>224.0352098159517</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>224.0352098159517</v>
+        <v>626.5212949514515</v>
       </c>
       <c r="X9" t="n">
-        <v>224.0352098159517</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.44142755506243</v>
+        <v>418.6697947459187</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>660.5968149695918</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>639.2227743377304</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>639.2227743377304</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U11" t="n">
-        <v>639.2227743377304</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V11" t="n">
-        <v>639.2227743377304</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W11" t="n">
-        <v>639.2227743377304</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X11" t="n">
-        <v>431.628992076841</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y11" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>499.0663215028962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>324.6132922217692</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>175.6788825605179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>366.5706756325438</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>499.0663215028962</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>499.0663215028962</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V12" t="n">
-        <v>499.0663215028962</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W12" t="n">
-        <v>499.0663215028962</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X12" t="n">
-        <v>499.0663215028962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>499.0663215028962</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>224.0352098159517</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C14" t="n">
-        <v>224.0352098159517</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>811.9797623848946</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>811.9797623848946</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T14" t="n">
-        <v>639.2227743377304</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U14" t="n">
-        <v>639.2227743377304</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V14" t="n">
-        <v>639.2227743377304</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W14" t="n">
-        <v>639.2227743377304</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X14" t="n">
-        <v>431.628992076841</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y14" t="n">
-        <v>224.0352098159517</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C15" t="n">
-        <v>647.6183484719946</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D15" t="n">
-        <v>498.6839388107434</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E15" t="n">
-        <v>339.4464838052879</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F15" t="n">
-        <v>192.9119258321728</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>54.18110041478835</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>594.8845297389407</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>387.0330295334078</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5630,16 +5630,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="19">
@@ -5712,7 +5712,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30.58726043968704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>339.3395341116723</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C21" t="n">
-        <v>339.3395341116723</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="D21" t="n">
-        <v>339.3395341116723</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="E21" t="n">
-        <v>339.3395341116723</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F21" t="n">
-        <v>339.3395341116723</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G21" t="n">
         <v>222.9499078454769</v>
@@ -5834,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W21" t="n">
-        <v>547.1910343172051</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X21" t="n">
-        <v>339.3395341116723</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y21" t="n">
-        <v>339.3395341116723</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="22">
@@ -5937,10 +5937,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224361</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C23" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -5989,7 +5989,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6016,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="24">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6074,19 +6074,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>562.4161926976942</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>318.9674160535941</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>318.9674160535941</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6171,13 +6171,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6205,13 +6205,13 @@
         <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>501.9060370580465</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
         <v>19.28114311021272</v>
@@ -6311,13 +6311,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>877.8816728430684</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>670.1213740781145</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6490,25 +6490,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>489.203140025706</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="C30" t="n">
-        <v>314.750110744579</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D30" t="n">
-        <v>165.8157010833278</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6548,10 +6548,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6569,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>657.4184770457741</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W30" t="n">
-        <v>657.4184770457741</v>
+        <v>631.9993185262358</v>
       </c>
       <c r="X30" t="n">
-        <v>657.4184770457741</v>
+        <v>631.9993185262358</v>
       </c>
       <c r="Y30" t="n">
-        <v>657.4184770457741</v>
+        <v>631.9993185262358</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C32" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D32" t="n">
         <v>477.1596022224361</v>
       </c>
       <c r="E32" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="F32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6745,7 +6745,7 @@
         <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>554.0190606638694</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="C33" t="n">
-        <v>554.0190606638694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>554.0190606638694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>394.7816056584139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6785,46 +6785,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>761.8705608694022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V33" t="n">
-        <v>761.8705608694022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W33" t="n">
-        <v>761.8705608694022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X33" t="n">
-        <v>554.0190606638694</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="Y33" t="n">
-        <v>554.0190606638694</v>
+        <v>51.20856840381305</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -7019,43 +7019,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>873.1668660640046</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>873.1668660640046</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>873.1668660640046</v>
       </c>
       <c r="U36" t="n">
-        <v>852.7947480059265</v>
+        <v>644.9432478003937</v>
       </c>
       <c r="V36" t="n">
-        <v>852.7947480059265</v>
+        <v>644.9432478003937</v>
       </c>
       <c r="W36" t="n">
-        <v>609.3459713618265</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X36" t="n">
         <v>401.4944711562937</v>
@@ -7113,22 +7113,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>554.837743301797</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="C39" t="n">
-        <v>554.837743301797</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="D39" t="n">
-        <v>554.837743301797</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="E39" t="n">
-        <v>395.6002882963414</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7265,7 +7265,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7280,25 +7280,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>789.9898515335396</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>789.9898515335396</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>789.9898515335396</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>554.837743301797</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W39" t="n">
-        <v>554.837743301797</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X39" t="n">
-        <v>554.837743301797</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="Y39" t="n">
-        <v>554.837743301797</v>
+        <v>44.28007843568128</v>
       </c>
     </row>
     <row r="40">
@@ -7362,13 +7362,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>639.2227743377304</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>431.628992076841</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>431.628992076841</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>639.2227743377304</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.8944568361894</v>
+        <v>36.07461146390284</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>768.8901707583807</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>566.7035761171468</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U42" t="n">
-        <v>566.7035761171468</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V42" t="n">
-        <v>566.7035761171468</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W42" t="n">
-        <v>566.7035761171468</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X42" t="n">
-        <v>566.7035761171468</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="Y42" t="n">
-        <v>359.1097938562575</v>
+        <v>36.07461146390284</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.792197863116</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>189.1984156022267</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>189.1984156022267</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>189.1984156022267</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>189.1984156022267</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>189.1984156022267</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>85.87524403801982</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>265.9510956226784</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>469.413761616576</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>672.8764276104736</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V44" t="n">
-        <v>811.9797623848946</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W44" t="n">
-        <v>811.9797623848946</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X44" t="n">
-        <v>811.9797623848946</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>604.3859801240053</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>98.12050152333947</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>98.12050152333947</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>98.12050152333947</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>98.12050152333947</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>98.12050152333947</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>142.2888212580996</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>345.7514872519972</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>549.2141532458947</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O45" t="n">
-        <v>752.6768192397923</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>720.9018483060073</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>720.9018483060073</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U45" t="n">
-        <v>720.9018483060073</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="V45" t="n">
-        <v>720.9018483060073</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="W45" t="n">
-        <v>513.308066045118</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X45" t="n">
-        <v>305.7142837842288</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y45" t="n">
-        <v>98.12050152333947</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>290.7443071551351</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7024424905649</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>233.7538122443171</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8692,16 +8692,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8774,16 +8774,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8929,16 +8929,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>152.8659767558044</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,16 +9491,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>186.8580120236956</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,22 +9722,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,16 +9959,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>292.5201795090609</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10196,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>303.312501347746</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10433,7 +10433,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10445,10 +10445,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,10 +10913,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O39" t="n">
-        <v>242.4075215744184</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11062,16 +11062,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11144,22 +11144,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>144.0674440055713</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>265.6729592778915</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23275,7 +23275,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>187.8597693607025</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>315.8939308547783</v>
       </c>
     </row>
     <row r="12">
@@ -23339,13 +23339,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>152.2307282635795</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23512,10 +23512,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>148.0596218681136</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>52.06643139743881</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.7200942177732</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23576,22 +23576,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>75.61975943162567</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23636,13 +23636,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>186.5366464944058</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23694,16 +23694,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>131.2109657279547</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23870,16 +23870,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>354.079835614828</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23986,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24019,13 +24019,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24056,13 +24056,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>47.53375785379006</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>22.11778715967723</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24113,7 +24113,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24177,13 +24177,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24208,19 +24208,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>362.0075757138109</v>
       </c>
       <c r="D23" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24256,7 +24256,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24265,13 +24265,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24335,7 +24335,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24344,16 +24344,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>81.7017845516725</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24420,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24445,16 +24445,16 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24572,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>120.4592573625853</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>124.2586028933485</v>
@@ -24691,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24730,7 +24730,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24739,13 +24739,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>366.4657846212723</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24761,19 +24761,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24818,10 +24818,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>29.38612962185499</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>194.7987298028442</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24888,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,16 +24922,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24998,22 +24998,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>141.1003479476514</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>22.90271587037186</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,10 +25156,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>135.0690668140378</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25171,7 +25171,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25207,7 +25207,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
@@ -25216,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>10.17644760047781</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25289,7 +25289,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>115.7915986513122</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25298,7 +25298,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25353,13 +25353,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25371,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25435,28 +25435,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>145.2236497783945</v>
@@ -25478,22 +25478,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>132.8961344831871</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,10 +25520,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>99.51437431915539</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25535,7 +25535,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25675,16 +25675,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.2178212748162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>156.0829653181625</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>119.0337761790443</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25769,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25806,7 +25806,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25836,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>168.4453839490745</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25958,7 +25958,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>56.48123393461637</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>34.67690903038678</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>983892.5166378901</v>
+        <v>974713.8522375814</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>983892.5166378901</v>
+        <v>986035.9282021185</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>983892.5166378901</v>
+        <v>986035.9282021185</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>402537.0575143069</v>
+        <v>424007.4396802569</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>402537.0575143069</v>
+        <v>424007.4396802569</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>424007.4396802569</v>
+        <v>424007.439680257</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>424007.4396802569</v>
+        <v>424007.439680257</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>424007.439680257</v>
+        <v>424007.4396802569</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>424007.4396802569</v>
+        <v>424007.4396802568</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>424007.439680257</v>
+        <v>424007.4396802569</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>424007.4396802569</v>
+        <v>424007.439680257</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>402537.0575143069</v>
+        <v>424007.4396802569</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>402537.057514307</v>
+        <v>424007.4396802569</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185701</v>
+      </c>
+      <c r="C2" t="n">
+        <v>492625.0619185698</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.06191857</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.0619185701</v>
-      </c>
       <c r="E2" t="n">
-        <v>189309.170201918</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="F2" t="n">
-        <v>189309.1702019179</v>
+        <v>199392.8070375989</v>
       </c>
       <c r="G2" t="n">
         <v>199392.8070375988</v>
       </c>
       <c r="H2" t="n">
+        <v>199392.8070375988</v>
+      </c>
+      <c r="I2" t="n">
+        <v>199392.8070375988</v>
+      </c>
+      <c r="J2" t="n">
         <v>199392.8070375987</v>
-      </c>
-      <c r="I2" t="n">
-        <v>199392.8070375987</v>
-      </c>
-      <c r="J2" t="n">
-        <v>199392.8070375988</v>
       </c>
       <c r="K2" t="n">
         <v>199392.8070375988</v>
       </c>
       <c r="L2" t="n">
-        <v>199392.8070375987</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="M2" t="n">
         <v>199392.8070375988</v>
@@ -26352,10 +26352,10 @@
         <v>199392.8070375987</v>
       </c>
       <c r="O2" t="n">
-        <v>189309.1702019179</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="P2" t="n">
-        <v>189309.170201918</v>
+        <v>199392.8070375987</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>53772.51089020943</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>328386.1670003452</v>
+        <v>360174.3645198887</v>
       </c>
       <c r="C4" t="n">
-        <v>328386.1670003451</v>
+        <v>320962.9529903556</v>
       </c>
       <c r="D4" t="n">
-        <v>328386.1670003452</v>
+        <v>320962.9529903556</v>
       </c>
       <c r="E4" t="n">
-        <v>39848.29285289707</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="F4" t="n">
-        <v>39848.29285289707</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="G4" t="n">
         <v>42017.42535589615</v>
@@ -26441,7 +26441,7 @@
         <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
-        <v>42017.42535589615</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="K4" t="n">
         <v>42017.42535589615</v>
@@ -26450,16 +26450,16 @@
         <v>42017.42535589615</v>
       </c>
       <c r="M4" t="n">
-        <v>42017.42535589615</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="N4" t="n">
         <v>42017.42535589615</v>
       </c>
       <c r="O4" t="n">
-        <v>39848.29285289707</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="P4" t="n">
-        <v>39848.29285289707</v>
+        <v>42017.42535589615</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46123.08494184745</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26508,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49242.05339468751</v>
+        <v>77636.25637547518</v>
       </c>
       <c r="C6" t="n">
-        <v>118115.8099763774</v>
+        <v>62804.51797778451</v>
       </c>
       <c r="D6" t="n">
-        <v>118115.8099763775</v>
+        <v>123380.8401644527</v>
       </c>
       <c r="E6" t="n">
-        <v>136965.3924071735</v>
+        <v>130503.7022979005</v>
       </c>
       <c r="F6" t="n">
-        <v>136965.3924071734</v>
+        <v>130503.7022979006</v>
       </c>
       <c r="G6" t="n">
-        <v>132992.6699437739</v>
+        <v>130503.7022979005</v>
       </c>
       <c r="H6" t="n">
-        <v>142721.7129179409</v>
+        <v>130503.7022979005</v>
       </c>
       <c r="I6" t="n">
-        <v>142721.7129179409</v>
+        <v>130503.7022979005</v>
       </c>
       <c r="J6" t="n">
-        <v>88949.20202773155</v>
+        <v>116502.4701576211</v>
       </c>
       <c r="K6" t="n">
-        <v>142721.712917941</v>
+        <v>82246.74936426786</v>
       </c>
       <c r="L6" t="n">
-        <v>142721.7129179409</v>
+        <v>130503.7022979005</v>
       </c>
       <c r="M6" t="n">
-        <v>142721.712917941</v>
+        <v>130503.7022979005</v>
       </c>
       <c r="N6" t="n">
-        <v>142721.7129179409</v>
+        <v>130503.7022979005</v>
       </c>
       <c r="O6" t="n">
-        <v>136965.3924071734</v>
+        <v>130503.7022979005</v>
       </c>
       <c r="P6" t="n">
-        <v>136965.3924071735</v>
+        <v>130503.7022979005</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26828,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>225.855928360474</v>
+        <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>390.1088905323286</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27402,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,19 +27423,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27469,19 +27469,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>91.55668338343412</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>83.83098815326088</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>43.00938862570919</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>125.9092101299036</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27560,7 +27560,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>32.64951424174463</v>
       </c>
       <c r="R4" t="n">
-        <v>140.1870446435807</v>
+        <v>123.7808623672197</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>199.5477458235686</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>161.0465736907239</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>4.958045132125505</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27672,10 +27672,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>135.2021864177706</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27706,7 +27706,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27748,19 +27748,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>168.8745412198571</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>165.0978261217047</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>46.82786452690797</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>115.8205630125936</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>253.1079552302216</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>118.5910057342293</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27943,19 +27943,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27982,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>118.1036305863884</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>17.69231535996994</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28028,7 +28028,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>140.1931807347553</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28052,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28070,7 +28070,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>141.2201675643428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="O3" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>148.1480627106907</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>91.61977832229879</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35418,10 +35418,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35494,16 +35494,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>21.52426467247106</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35649,16 +35649,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>21.52426467247106</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36211,16 +36211,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>55.51629994036225</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>161.1784674257276</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36916,13 +36916,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>161.1784674257276</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37165,10 +37165,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37633,10 +37633,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O39" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37782,16 +37782,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37864,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>12.72573192223801</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>127.1185794980173</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
